--- a/SODO/A Tuc/BAOCAO-NQ10-4069/KQDD/KHONGDUDIEUKIEN-NQ10/88-TRUONGHOP-KHONGDUDK-NQ10.xlsx
+++ b/SODO/A Tuc/BAOCAO-NQ10-4069/KQDD/KHONGDUDIEUKIEN-NQ10/88-TRUONGHOP-KHONGDUDK-NQ10.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Baocao (2)'!$A$1:$H$89</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Baocao (2)'!$A$1:$H$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Baocao (2)'!$A$1:$H$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Baocao (2)'!$A$1:$H$89</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Baocao (2)'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -761,7 +761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -772,10 +772,10 @@
   <sheetPr codeName="Sheet11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -819,7 +819,7 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>10</v>
@@ -831,10 +831,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6">
-        <v>14713</v>
+        <v>12240</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>9</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>8</v>
@@ -857,10 +857,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="6">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F3" s="6">
-        <v>12240</v>
+        <v>3911</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
@@ -871,22 +871,22 @@
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="6">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F4" s="6">
-        <v>3911</v>
+        <v>15471</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -897,48 +897,48 @@
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
-        <v>38</v>
-      </c>
-      <c r="E5" s="6">
-        <v>93</v>
-      </c>
-      <c r="F5" s="6">
-        <v>15471</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="D5" s="9">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9">
+        <v>78</v>
+      </c>
+      <c r="F5" s="9">
+        <v>7651</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F6" s="9">
-        <v>7651</v>
+        <v>20814</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>9</v>
@@ -949,33 +949,33 @@
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9">
-        <v>109</v>
-      </c>
-      <c r="F7" s="9">
-        <v>20814</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="D7" s="6">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>125</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9149</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>14</v>
@@ -987,10 +987,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="6">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="6">
-        <v>9149</v>
+        <v>5024</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>9</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>8</v>
@@ -1013,10 +1013,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="6">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="F9" s="6">
-        <v>5024</v>
+        <v>19463</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>9</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>8</v>
@@ -1039,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="E10" s="6">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="F10" s="6">
-        <v>19463</v>
+        <v>36590</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>9</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>14</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>8</v>
@@ -1065,10 +1065,10 @@
         <v>21</v>
       </c>
       <c r="E11" s="6">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="F11" s="6">
-        <v>36590</v>
+        <v>7637</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>9</v>
@@ -1079,22 +1079,22 @@
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="F12" s="6">
-        <v>7637</v>
+        <v>13514</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>9</v>
@@ -1105,22 +1105,22 @@
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="F13" s="6">
-        <v>13514</v>
+        <v>39426</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>9</v>
@@ -1131,9 +1131,9 @@
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>18</v>
-      </c>
-      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -1143,10 +1143,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="6">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F14" s="6">
-        <v>39426</v>
+        <v>20344</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>9</v>
@@ -1157,36 +1157,36 @@
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>19</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>107</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6">
-        <v>247</v>
-      </c>
-      <c r="F15" s="6">
-        <v>20344</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="D15" s="9">
+        <v>21</v>
+      </c>
+      <c r="E15" s="9">
+        <v>60</v>
+      </c>
+      <c r="F15" s="9">
+        <v>23170</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>8</v>
@@ -1195,10 +1195,10 @@
         <v>21</v>
       </c>
       <c r="E16" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F16" s="9">
-        <v>23170</v>
+        <v>7693</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>9</v>
@@ -1209,103 +1209,103 @@
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="9">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9">
-        <v>66</v>
-      </c>
-      <c r="F17" s="9">
-        <v>7693</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="D17" s="6">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6">
+        <v>73</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10414</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6">
-        <v>21</v>
-      </c>
-      <c r="E18" s="6">
-        <v>73</v>
-      </c>
-      <c r="F18" s="6">
-        <v>10414</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="D18" s="9">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9">
+        <v>223</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4096</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9">
-        <v>223</v>
-      </c>
-      <c r="F19" s="9">
-        <v>4096</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>11</v>
+      <c r="D19" s="6">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4432</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E20" s="6">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F20" s="6">
-        <v>4432</v>
+        <v>10873</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>12</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>22</v>
@@ -1325,24 +1325,24 @@
         <v>21</v>
       </c>
       <c r="E21" s="6">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6">
-        <v>10873</v>
+        <v>4769</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>22</v>
@@ -1351,10 +1351,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="6">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F22" s="6">
-        <v>4769</v>
+        <v>13915</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>9</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>23</v>
@@ -1377,10 +1377,10 @@
         <v>21</v>
       </c>
       <c r="E23" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" s="6">
-        <v>13915</v>
+        <v>11043</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>9</v>
@@ -1391,140 +1391,140 @@
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="6">
         <v>21</v>
       </c>
       <c r="E24" s="6">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F24" s="6">
-        <v>11043</v>
+        <v>2498</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" s="6">
         <v>21</v>
       </c>
       <c r="E25" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" s="6">
-        <v>2498</v>
+        <v>8459</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" s="6">
         <v>21</v>
       </c>
       <c r="E26" s="6">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F26" s="6">
-        <v>8459</v>
+        <v>3392</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="6">
         <v>21</v>
       </c>
       <c r="E27" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27" s="6">
-        <v>3392</v>
+        <v>2566</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="6">
         <v>21</v>
       </c>
       <c r="E28" s="6">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="F28" s="6">
-        <v>2566</v>
+        <v>1454</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>31</v>
@@ -1533,62 +1533,62 @@
         <v>21</v>
       </c>
       <c r="E29" s="6">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="F29" s="6">
-        <v>1454</v>
+        <v>31282</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E30" s="6">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="F30" s="6">
-        <v>31282</v>
+        <v>3850</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E31" s="6">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="F31" s="6">
-        <v>3850</v>
+        <v>10834</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>9</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>33</v>
@@ -1611,24 +1611,24 @@
         <v>21</v>
       </c>
       <c r="E32" s="6">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F32" s="6">
-        <v>10834</v>
+        <v>6891</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>33</v>
@@ -1637,50 +1637,50 @@
         <v>21</v>
       </c>
       <c r="E33" s="6">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F33" s="6">
-        <v>6891</v>
+        <v>28947</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="6">
-        <v>21</v>
-      </c>
-      <c r="E34" s="6">
-        <v>137</v>
-      </c>
-      <c r="F34" s="6">
-        <v>28947</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="6" t="s">
+      <c r="D34" s="9">
+        <v>21</v>
+      </c>
+      <c r="E34" s="9">
+        <v>139</v>
+      </c>
+      <c r="F34" s="9">
+        <v>12126</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>33</v>
@@ -1689,50 +1689,50 @@
         <v>21</v>
       </c>
       <c r="E35" s="9">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F35" s="9">
-        <v>12126</v>
+        <v>26358</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="9">
-        <v>21</v>
-      </c>
-      <c r="E36" s="9">
-        <v>115</v>
-      </c>
-      <c r="F36" s="9">
-        <v>26358</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>37</v>
+      <c r="D36" s="6">
+        <v>21</v>
+      </c>
+      <c r="E36" s="6">
+        <v>205</v>
+      </c>
+      <c r="F36" s="6">
+        <v>11493</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>33</v>
@@ -1741,24 +1741,24 @@
         <v>21</v>
       </c>
       <c r="E37" s="6">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="F37" s="6">
-        <v>11493</v>
+        <v>10926</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>49</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>33</v>
@@ -1767,10 +1767,10 @@
         <v>21</v>
       </c>
       <c r="E38" s="6">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F38" s="6">
-        <v>10926</v>
+        <v>1705</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>9</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>39</v>
@@ -1793,10 +1793,10 @@
         <v>21</v>
       </c>
       <c r="E39" s="6">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F39" s="6">
-        <v>1705</v>
+        <v>8766</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>9</v>
@@ -1807,22 +1807,22 @@
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>51</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D40" s="6">
         <v>21</v>
       </c>
       <c r="E40" s="6">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="F40" s="6">
-        <v>8766</v>
+        <v>13074</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>9</v>
@@ -1833,33 +1833,33 @@
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>52</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>96</v>
+        <v>53</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D41" s="6">
         <v>21</v>
       </c>
       <c r="E41" s="6">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F41" s="6">
-        <v>13074</v>
+        <v>7913</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>42</v>
@@ -1871,10 +1871,10 @@
         <v>21</v>
       </c>
       <c r="E42" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F42" s="6">
-        <v>7913</v>
+        <v>5219</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>9</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>43</v>
@@ -1897,10 +1897,10 @@
         <v>21</v>
       </c>
       <c r="E43" s="6">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F43" s="6">
-        <v>5219</v>
+        <v>9667</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>9</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>44</v>
@@ -1923,10 +1923,10 @@
         <v>21</v>
       </c>
       <c r="E44" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F44" s="6">
-        <v>9667</v>
+        <v>13907</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>9</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>56</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>43</v>
@@ -1949,154 +1949,154 @@
         <v>21</v>
       </c>
       <c r="E45" s="6">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="F45" s="6">
-        <v>13907</v>
+        <v>7804</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="6">
-        <v>21</v>
-      </c>
-      <c r="E46" s="6">
-        <v>153</v>
-      </c>
-      <c r="F46" s="6">
-        <v>7804</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>35</v>
+      <c r="D46" s="9">
+        <v>22</v>
+      </c>
+      <c r="E46" s="9">
+        <v>14</v>
+      </c>
+      <c r="F46" s="9">
+        <v>7934</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D47" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" s="9">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="F47" s="9">
-        <v>7934</v>
+        <v>4128</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="9">
-        <v>21</v>
-      </c>
-      <c r="E48" s="9">
-        <v>141</v>
-      </c>
-      <c r="F48" s="9">
-        <v>4128</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>12</v>
+      <c r="D48" s="6">
+        <v>21</v>
+      </c>
+      <c r="E48" s="6">
+        <v>74</v>
+      </c>
+      <c r="F48" s="6">
+        <v>4352</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E49" s="6">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F49" s="6">
-        <v>4352</v>
+        <v>6114</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="6">
-        <v>32</v>
-      </c>
-      <c r="E50" s="6">
-        <v>119</v>
-      </c>
-      <c r="F50" s="6">
-        <v>6114</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="6" t="s">
+      <c r="D50" s="9">
+        <v>21</v>
+      </c>
+      <c r="E50" s="9">
+        <v>220</v>
+      </c>
+      <c r="F50" s="9">
+        <v>11197</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>43</v>
@@ -2105,10 +2105,10 @@
         <v>21</v>
       </c>
       <c r="E51" s="9">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="F51" s="9">
-        <v>11197</v>
+        <v>7258</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>9</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>16</v>
@@ -2131,10 +2131,10 @@
         <v>21</v>
       </c>
       <c r="E52" s="9">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F52" s="9">
-        <v>7258</v>
+        <v>4680</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>9</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>43</v>
@@ -2157,10 +2157,10 @@
         <v>21</v>
       </c>
       <c r="E53" s="9">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F53" s="9">
-        <v>4680</v>
+        <v>4738</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>9</v>
@@ -2171,88 +2171,88 @@
     </row>
     <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="9">
-        <v>21</v>
-      </c>
-      <c r="E54" s="9">
-        <v>147</v>
-      </c>
-      <c r="F54" s="9">
-        <v>4738</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="D54" s="6">
+        <v>21</v>
+      </c>
+      <c r="E54" s="6">
+        <v>155</v>
+      </c>
+      <c r="F54" s="6">
+        <v>6028</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D55" s="6">
         <v>21</v>
       </c>
       <c r="E55" s="6">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="F55" s="6">
-        <v>6028</v>
+        <v>14524</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="6">
-        <v>21</v>
-      </c>
-      <c r="E56" s="6">
-        <v>82</v>
-      </c>
-      <c r="F56" s="6">
-        <v>14524</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>35</v>
+      <c r="D56" s="9">
+        <v>21</v>
+      </c>
+      <c r="E56" s="9">
+        <v>105</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2993</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>53</v>
@@ -2261,10 +2261,10 @@
         <v>21</v>
       </c>
       <c r="E57" s="9">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="F57" s="9">
-        <v>2993</v>
+        <v>5223</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>9</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>17</v>
@@ -2283,28 +2283,28 @@
       <c r="C58" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="9">
-        <v>21</v>
-      </c>
-      <c r="E58" s="9">
-        <v>157</v>
-      </c>
-      <c r="F58" s="9">
-        <v>5223</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>11</v>
+      <c r="D58" s="6">
+        <v>21</v>
+      </c>
+      <c r="E58" s="6">
+        <v>159</v>
+      </c>
+      <c r="F58" s="6">
+        <v>3403</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>53</v>
@@ -2313,21 +2313,21 @@
         <v>21</v>
       </c>
       <c r="E59" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F59" s="6">
-        <v>3403</v>
+        <v>6134</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>99</v>
@@ -2339,24 +2339,24 @@
         <v>21</v>
       </c>
       <c r="E60" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F60" s="6">
-        <v>6134</v>
+        <v>12699</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>53</v>
@@ -2365,10 +2365,10 @@
         <v>21</v>
       </c>
       <c r="E61" s="6">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="F61" s="6">
-        <v>12699</v>
+        <v>8046</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>9</v>
@@ -2379,62 +2379,62 @@
     </row>
     <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D62" s="6">
         <v>21</v>
       </c>
       <c r="E62" s="6">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="F62" s="6">
-        <v>8046</v>
+        <v>26159</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D63" s="6">
         <v>21</v>
       </c>
       <c r="E63" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F63" s="6">
-        <v>26159</v>
+        <v>5395</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>62</v>
@@ -2443,10 +2443,10 @@
         <v>21</v>
       </c>
       <c r="E64" s="6">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="F64" s="6">
-        <v>5395</v>
+        <v>3686</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>9</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>61</v>
@@ -2469,10 +2469,10 @@
         <v>21</v>
       </c>
       <c r="E65" s="6">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F65" s="6">
-        <v>3686</v>
+        <v>1672</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>9</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>77</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>62</v>
@@ -2495,21 +2495,21 @@
         <v>21</v>
       </c>
       <c r="E66" s="6">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="F66" s="6">
-        <v>1672</v>
+        <v>3186</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>64</v>
@@ -2521,10 +2521,10 @@
         <v>21</v>
       </c>
       <c r="E67" s="6">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F67" s="6">
-        <v>3186</v>
+        <v>2547</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>9</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>64</v>
@@ -2547,10 +2547,10 @@
         <v>21</v>
       </c>
       <c r="E68" s="6">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F68" s="6">
-        <v>2547</v>
+        <v>11112</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>9</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>64</v>
@@ -2573,10 +2573,10 @@
         <v>21</v>
       </c>
       <c r="E69" s="6">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F69" s="6">
-        <v>11112</v>
+        <v>18329</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>9</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>81</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>64</v>
+        <v>82</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>62</v>
@@ -2599,24 +2599,24 @@
         <v>21</v>
       </c>
       <c r="E70" s="6">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F70" s="6">
-        <v>18329</v>
+        <v>11735</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>62</v>
@@ -2625,24 +2625,24 @@
         <v>21</v>
       </c>
       <c r="E71" s="6">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F71" s="6">
-        <v>11735</v>
+        <v>4497</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>62</v>
@@ -2651,24 +2651,24 @@
         <v>21</v>
       </c>
       <c r="E72" s="6">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="F72" s="6">
-        <v>4497</v>
+        <v>10971</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>84</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>62</v>
@@ -2677,21 +2677,21 @@
         <v>21</v>
       </c>
       <c r="E73" s="6">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F73" s="6">
-        <v>10971</v>
+        <v>6911</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>68</v>
@@ -2703,10 +2703,10 @@
         <v>21</v>
       </c>
       <c r="E74" s="6">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F74" s="6">
-        <v>6911</v>
+        <v>8079</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>9</v>
@@ -2717,33 +2717,33 @@
     </row>
     <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>86</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>68</v>
+        <v>88</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="6">
-        <v>21</v>
-      </c>
-      <c r="E75" s="6">
-        <v>227</v>
-      </c>
-      <c r="F75" s="6">
-        <v>8079</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="D75" s="9">
+        <v>21</v>
+      </c>
+      <c r="E75" s="9">
+        <v>178</v>
+      </c>
+      <c r="F75" s="9">
+        <v>6472</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>69</v>
@@ -2755,10 +2755,10 @@
         <v>21</v>
       </c>
       <c r="E76" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F76" s="9">
-        <v>6472</v>
+        <v>10813</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>9</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>8</v>
@@ -2781,10 +2781,10 @@
         <v>21</v>
       </c>
       <c r="E77" s="9">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F77" s="9">
-        <v>10813</v>
+        <v>4280</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>9</v>
@@ -2795,62 +2795,62 @@
     </row>
     <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="9">
-        <v>21</v>
-      </c>
-      <c r="E78" s="9">
-        <v>198</v>
-      </c>
-      <c r="F78" s="9">
-        <v>4280</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="D78" s="6">
+        <v>21</v>
+      </c>
+      <c r="E78" s="6">
+        <v>200</v>
+      </c>
+      <c r="F78" s="6">
+        <v>24876</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D79" s="6">
         <v>21</v>
       </c>
       <c r="E79" s="6">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F79" s="6">
-        <v>24876</v>
+        <v>38824</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>25</v>
@@ -2859,76 +2859,76 @@
         <v>21</v>
       </c>
       <c r="E80" s="6">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F80" s="6">
-        <v>38824</v>
+        <v>6317</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D81" s="6">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E81" s="6">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="F81" s="6">
-        <v>6317</v>
+        <v>5918</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="6">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E82" s="6">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="F82" s="6">
-        <v>5918</v>
+        <v>2395</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>26</v>
@@ -2937,99 +2937,99 @@
         <v>21</v>
       </c>
       <c r="E83" s="6">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F83" s="6">
-        <v>2395</v>
+        <v>15445</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E84" s="6">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="F84" s="6">
-        <v>15445</v>
+        <v>3693</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="6">
-        <v>8</v>
-      </c>
-      <c r="E85" s="6">
-        <v>83</v>
-      </c>
-      <c r="F85" s="6">
-        <v>3693</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>75</v>
+        <v>28</v>
+      </c>
+      <c r="D85" s="8">
+        <v>16</v>
+      </c>
+      <c r="E85" s="8">
+        <v>47</v>
+      </c>
+      <c r="F85" s="8">
+        <v>3989</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>98</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D86" s="8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E86" s="8">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F86" s="8">
-        <v>3989</v>
+        <v>10831</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>78</v>
@@ -3041,10 +3041,10 @@
         <v>21</v>
       </c>
       <c r="E87" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F87" s="8">
-        <v>10831</v>
+        <v>3672</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>9</v>
@@ -3053,55 +3053,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>100</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>78</v>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>101</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="8">
-        <v>21</v>
-      </c>
-      <c r="E88" s="8">
-        <v>165</v>
-      </c>
-      <c r="F88" s="8">
-        <v>3672</v>
+      <c r="D88" s="11">
+        <v>21</v>
+      </c>
+      <c r="E88" s="11">
+        <v>231</v>
+      </c>
+      <c r="F88" s="11">
+        <v>31074</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
-        <v>101</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="11">
-        <v>21</v>
-      </c>
-      <c r="E89" s="11">
-        <v>231</v>
-      </c>
-      <c r="F89" s="11">
-        <v>31074</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3109,12 +3083,12 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="11" max="8" man="1"/>
-    <brk id="24" max="7" man="1"/>
-    <brk id="37" max="7" man="1"/>
-    <brk id="51" max="7" man="1"/>
-    <brk id="64" max="7" man="1"/>
-    <brk id="77" max="7" man="1"/>
+    <brk id="10" max="8" man="1"/>
+    <brk id="23" max="7" man="1"/>
+    <brk id="36" max="7" man="1"/>
+    <brk id="50" max="7" man="1"/>
+    <brk id="63" max="7" man="1"/>
+    <brk id="76" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/SODO/A Tuc/BAOCAO-NQ10-4069/KQDD/KHONGDUDIEUKIEN-NQ10/88-TRUONGHOP-KHONGDUDK-NQ10.xlsx
+++ b/SODO/A Tuc/BAOCAO-NQ10-4069/KQDD/KHONGDUDIEUKIEN-NQ10/88-TRUONGHOP-KHONGDUDK-NQ10.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Baocao (2)'!$A$1:$H$88</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Baocao (2)'!$A$1:$H$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Baocao (2)'!$A$1:$H$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Baocao (2)'!$A$1:$H$90</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Baocao (2)'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -761,7 +761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -772,10 +772,10 @@
   <sheetPr codeName="Sheet11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -845,7 +845,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>13</v>
@@ -853,40 +853,40 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6">
-        <v>84</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3911</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="D3" s="9">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9">
+        <v>83</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5917</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="6">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F4" s="6">
-        <v>15471</v>
+        <v>3911</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -897,48 +897,48 @@
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9">
-        <v>30</v>
-      </c>
-      <c r="E5" s="9">
-        <v>78</v>
-      </c>
-      <c r="F5" s="9">
-        <v>7651</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="D5" s="6">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6">
+        <v>93</v>
+      </c>
+      <c r="F5" s="6">
+        <v>15471</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F6" s="9">
-        <v>20814</v>
+        <v>7651</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>9</v>
@@ -949,33 +949,33 @@
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>9</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6">
-        <v>125</v>
-      </c>
-      <c r="F7" s="6">
-        <v>9149</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="D7" s="9">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9">
+        <v>109</v>
+      </c>
+      <c r="F7" s="9">
+        <v>20814</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>14</v>
@@ -987,10 +987,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="6">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="6">
-        <v>5024</v>
+        <v>9149</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>9</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>8</v>
@@ -1013,10 +1013,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="6">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="F9" s="6">
-        <v>19463</v>
+        <v>5024</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>9</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>8</v>
@@ -1039,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="E10" s="6">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="F10" s="6">
-        <v>36590</v>
+        <v>19463</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>9</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>8</v>
@@ -1065,10 +1065,10 @@
         <v>21</v>
       </c>
       <c r="E11" s="6">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="F11" s="6">
-        <v>7637</v>
+        <v>36590</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>9</v>
@@ -1079,22 +1079,22 @@
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="F12" s="6">
-        <v>13514</v>
+        <v>7637</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>9</v>
@@ -1105,22 +1105,22 @@
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="F13" s="6">
-        <v>39426</v>
+        <v>13514</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>9</v>
@@ -1131,9 +1131,9 @@
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -1143,10 +1143,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="6">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F14" s="6">
-        <v>20344</v>
+        <v>39426</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>9</v>
@@ -1157,36 +1157,36 @@
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>23</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>85</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="9">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9">
-        <v>60</v>
-      </c>
-      <c r="F15" s="9">
-        <v>23170</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="D15" s="6">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6">
+        <v>247</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20344</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>8</v>
@@ -1195,10 +1195,10 @@
         <v>21</v>
       </c>
       <c r="E16" s="9">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F16" s="9">
-        <v>7693</v>
+        <v>23170</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>9</v>
@@ -1209,103 +1209,103 @@
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6">
-        <v>73</v>
-      </c>
-      <c r="F17" s="6">
-        <v>10414</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="D17" s="9">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9">
+        <v>66</v>
+      </c>
+      <c r="F17" s="9">
+        <v>7693</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="9">
-        <v>21</v>
-      </c>
-      <c r="E18" s="9">
-        <v>223</v>
-      </c>
-      <c r="F18" s="9">
-        <v>4096</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="D18" s="6">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6">
+        <v>73</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10414</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6">
-        <v>8</v>
-      </c>
-      <c r="F19" s="6">
-        <v>4432</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>12</v>
+      <c r="D19" s="9">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9">
+        <v>223</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4096</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D20" s="6">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E20" s="6">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="F20" s="6">
-        <v>10873</v>
+        <v>4432</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>12</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>22</v>
@@ -1325,24 +1325,24 @@
         <v>21</v>
       </c>
       <c r="E21" s="6">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F21" s="6">
-        <v>4769</v>
+        <v>10873</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>22</v>
@@ -1351,10 +1351,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="6">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F22" s="6">
-        <v>13915</v>
+        <v>4769</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>9</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>23</v>
@@ -1377,10 +1377,10 @@
         <v>21</v>
       </c>
       <c r="E23" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="6">
-        <v>11043</v>
+        <v>13915</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>9</v>
@@ -1391,140 +1391,140 @@
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="6">
         <v>21</v>
       </c>
       <c r="E24" s="6">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F24" s="6">
-        <v>2498</v>
+        <v>11043</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="6">
         <v>21</v>
       </c>
       <c r="E25" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="6">
-        <v>8459</v>
+        <v>2498</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6">
         <v>21</v>
       </c>
       <c r="E26" s="6">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F26" s="6">
-        <v>3392</v>
+        <v>8459</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="6">
         <v>21</v>
       </c>
       <c r="E27" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="6">
-        <v>2566</v>
+        <v>3392</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="6">
         <v>21</v>
       </c>
       <c r="E28" s="6">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="F28" s="6">
-        <v>1454</v>
+        <v>2566</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>31</v>
@@ -1533,62 +1533,62 @@
         <v>21</v>
       </c>
       <c r="E29" s="6">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="F29" s="6">
-        <v>31282</v>
+        <v>1454</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E30" s="6">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="F30" s="6">
-        <v>3850</v>
+        <v>31282</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="6">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E31" s="6">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="F31" s="6">
-        <v>10834</v>
+        <v>3850</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>9</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>33</v>
@@ -1611,24 +1611,24 @@
         <v>21</v>
       </c>
       <c r="E32" s="6">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F32" s="6">
-        <v>6891</v>
+        <v>10834</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>33</v>
@@ -1637,50 +1637,50 @@
         <v>21</v>
       </c>
       <c r="E33" s="6">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F33" s="6">
-        <v>28947</v>
+        <v>6891</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="9">
-        <v>21</v>
-      </c>
-      <c r="E34" s="9">
-        <v>139</v>
-      </c>
-      <c r="F34" s="9">
-        <v>12126</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="D34" s="6">
+        <v>21</v>
+      </c>
+      <c r="E34" s="6">
+        <v>137</v>
+      </c>
+      <c r="F34" s="6">
+        <v>28947</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>33</v>
@@ -1689,50 +1689,50 @@
         <v>21</v>
       </c>
       <c r="E35" s="9">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="F35" s="9">
-        <v>26358</v>
+        <v>12126</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="6">
-        <v>21</v>
-      </c>
-      <c r="E36" s="6">
-        <v>205</v>
-      </c>
-      <c r="F36" s="6">
-        <v>11493</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>38</v>
+      <c r="D36" s="9">
+        <v>21</v>
+      </c>
+      <c r="E36" s="9">
+        <v>115</v>
+      </c>
+      <c r="F36" s="9">
+        <v>26358</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>33</v>
@@ -1741,24 +1741,24 @@
         <v>21</v>
       </c>
       <c r="E37" s="6">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="F37" s="6">
-        <v>10926</v>
+        <v>11493</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>50</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>33</v>
@@ -1767,10 +1767,10 @@
         <v>21</v>
       </c>
       <c r="E38" s="6">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F38" s="6">
-        <v>1705</v>
+        <v>10926</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>9</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>39</v>
@@ -1793,10 +1793,10 @@
         <v>21</v>
       </c>
       <c r="E39" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F39" s="6">
-        <v>8766</v>
+        <v>1705</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>9</v>
@@ -1807,22 +1807,22 @@
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>52</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>96</v>
+        <v>51</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D40" s="6">
         <v>21</v>
       </c>
       <c r="E40" s="6">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="F40" s="6">
-        <v>13074</v>
+        <v>8766</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>9</v>
@@ -1833,33 +1833,33 @@
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>53</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" s="6">
         <v>21</v>
       </c>
       <c r="E41" s="6">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F41" s="6">
-        <v>7913</v>
+        <v>13074</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>42</v>
@@ -1871,10 +1871,10 @@
         <v>21</v>
       </c>
       <c r="E42" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F42" s="6">
-        <v>5219</v>
+        <v>7913</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>9</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>43</v>
@@ -1897,10 +1897,10 @@
         <v>21</v>
       </c>
       <c r="E43" s="6">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F43" s="6">
-        <v>9667</v>
+        <v>5219</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>9</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>44</v>
@@ -1923,10 +1923,10 @@
         <v>21</v>
       </c>
       <c r="E44" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="6">
-        <v>13907</v>
+        <v>9667</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>9</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>57</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>43</v>
@@ -1949,154 +1949,154 @@
         <v>21</v>
       </c>
       <c r="E45" s="6">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="F45" s="6">
-        <v>7804</v>
+        <v>13907</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="9">
-        <v>22</v>
-      </c>
-      <c r="E46" s="9">
-        <v>14</v>
-      </c>
-      <c r="F46" s="9">
-        <v>7934</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>47</v>
+      <c r="D46" s="6">
+        <v>21</v>
+      </c>
+      <c r="E46" s="6">
+        <v>153</v>
+      </c>
+      <c r="F46" s="6">
+        <v>7804</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D47" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" s="9">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="F47" s="9">
-        <v>4128</v>
+        <v>7934</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="6">
-        <v>21</v>
-      </c>
-      <c r="E48" s="6">
-        <v>74</v>
-      </c>
-      <c r="F48" s="6">
-        <v>4352</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>34</v>
+      <c r="D48" s="9">
+        <v>21</v>
+      </c>
+      <c r="E48" s="9">
+        <v>141</v>
+      </c>
+      <c r="F48" s="9">
+        <v>4128</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="6">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E49" s="6">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F49" s="6">
-        <v>6114</v>
+        <v>4352</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="9">
-        <v>21</v>
-      </c>
-      <c r="E50" s="9">
-        <v>220</v>
-      </c>
-      <c r="F50" s="9">
-        <v>11197</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="9" t="s">
+      <c r="D50" s="6">
+        <v>32</v>
+      </c>
+      <c r="E50" s="6">
+        <v>119</v>
+      </c>
+      <c r="F50" s="6">
+        <v>6114</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>43</v>
@@ -2105,10 +2105,10 @@
         <v>21</v>
       </c>
       <c r="E51" s="9">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F51" s="9">
-        <v>7258</v>
+        <v>11197</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>9</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>16</v>
@@ -2131,10 +2131,10 @@
         <v>21</v>
       </c>
       <c r="E52" s="9">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F52" s="9">
-        <v>4680</v>
+        <v>7258</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>9</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>43</v>
@@ -2157,10 +2157,10 @@
         <v>21</v>
       </c>
       <c r="E53" s="9">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F53" s="9">
-        <v>4738</v>
+        <v>4680</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>9</v>
@@ -2171,88 +2171,88 @@
     </row>
     <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="6">
-        <v>21</v>
-      </c>
-      <c r="E54" s="6">
-        <v>155</v>
-      </c>
-      <c r="F54" s="6">
-        <v>6028</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="D54" s="9">
+        <v>21</v>
+      </c>
+      <c r="E54" s="9">
+        <v>147</v>
+      </c>
+      <c r="F54" s="9">
+        <v>4738</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D55" s="6">
         <v>21</v>
       </c>
       <c r="E55" s="6">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="F55" s="6">
-        <v>14524</v>
+        <v>6028</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="9">
-        <v>21</v>
-      </c>
-      <c r="E56" s="9">
-        <v>105</v>
-      </c>
-      <c r="F56" s="9">
-        <v>2993</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>11</v>
+      <c r="D56" s="6">
+        <v>21</v>
+      </c>
+      <c r="E56" s="6">
+        <v>82</v>
+      </c>
+      <c r="F56" s="6">
+        <v>14524</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>53</v>
@@ -2261,10 +2261,10 @@
         <v>21</v>
       </c>
       <c r="E57" s="9">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="F57" s="9">
-        <v>5223</v>
+        <v>2993</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>9</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>17</v>
@@ -2283,28 +2283,28 @@
       <c r="C58" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="6">
-        <v>21</v>
-      </c>
-      <c r="E58" s="6">
-        <v>159</v>
-      </c>
-      <c r="F58" s="6">
-        <v>3403</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>55</v>
+      <c r="D58" s="9">
+        <v>21</v>
+      </c>
+      <c r="E58" s="9">
+        <v>157</v>
+      </c>
+      <c r="F58" s="9">
+        <v>5223</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>53</v>
@@ -2313,21 +2313,21 @@
         <v>21</v>
       </c>
       <c r="E59" s="6">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F59" s="6">
-        <v>6134</v>
+        <v>3403</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>99</v>
@@ -2339,24 +2339,24 @@
         <v>21</v>
       </c>
       <c r="E60" s="6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F60" s="6">
-        <v>12699</v>
+        <v>6134</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>53</v>
@@ -2365,10 +2365,10 @@
         <v>21</v>
       </c>
       <c r="E61" s="6">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="F61" s="6">
-        <v>8046</v>
+        <v>12699</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>9</v>
@@ -2379,62 +2379,62 @@
     </row>
     <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D62" s="6">
         <v>21</v>
       </c>
       <c r="E62" s="6">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="F62" s="6">
-        <v>26159</v>
+        <v>8046</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D63" s="6">
         <v>21</v>
       </c>
       <c r="E63" s="6">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F63" s="6">
-        <v>5395</v>
+        <v>26159</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>62</v>
@@ -2443,10 +2443,10 @@
         <v>21</v>
       </c>
       <c r="E64" s="6">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="F64" s="6">
-        <v>3686</v>
+        <v>5395</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>9</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>61</v>
@@ -2469,10 +2469,10 @@
         <v>21</v>
       </c>
       <c r="E65" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F65" s="6">
-        <v>1672</v>
+        <v>3686</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>9</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>78</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>62</v>
@@ -2495,21 +2495,21 @@
         <v>21</v>
       </c>
       <c r="E66" s="6">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="F66" s="6">
-        <v>3186</v>
+        <v>1672</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>64</v>
@@ -2521,10 +2521,10 @@
         <v>21</v>
       </c>
       <c r="E67" s="6">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F67" s="6">
-        <v>2547</v>
+        <v>3186</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>9</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>64</v>
@@ -2547,10 +2547,10 @@
         <v>21</v>
       </c>
       <c r="E68" s="6">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F68" s="6">
-        <v>11112</v>
+        <v>2547</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>9</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>64</v>
@@ -2573,10 +2573,10 @@
         <v>21</v>
       </c>
       <c r="E69" s="6">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F69" s="6">
-        <v>18329</v>
+        <v>11112</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>9</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>82</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>62</v>
@@ -2599,24 +2599,24 @@
         <v>21</v>
       </c>
       <c r="E70" s="6">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F70" s="6">
-        <v>11735</v>
+        <v>18329</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>62</v>
@@ -2625,24 +2625,24 @@
         <v>21</v>
       </c>
       <c r="E71" s="6">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" s="6">
-        <v>4497</v>
+        <v>11735</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>62</v>
@@ -2651,24 +2651,24 @@
         <v>21</v>
       </c>
       <c r="E72" s="6">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="F72" s="6">
-        <v>10971</v>
+        <v>4497</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>85</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>68</v>
+        <v>84</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>62</v>
@@ -2677,21 +2677,21 @@
         <v>21</v>
       </c>
       <c r="E73" s="6">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F73" s="6">
-        <v>6911</v>
+        <v>10971</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>68</v>
@@ -2703,10 +2703,10 @@
         <v>21</v>
       </c>
       <c r="E74" s="6">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F74" s="6">
-        <v>8079</v>
+        <v>6911</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>9</v>
@@ -2717,33 +2717,33 @@
     </row>
     <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>88</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="9">
-        <v>21</v>
-      </c>
-      <c r="E75" s="9">
-        <v>178</v>
-      </c>
-      <c r="F75" s="9">
-        <v>6472</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="D75" s="6">
+        <v>21</v>
+      </c>
+      <c r="E75" s="6">
+        <v>227</v>
+      </c>
+      <c r="F75" s="6">
+        <v>8079</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>69</v>
@@ -2755,10 +2755,10 @@
         <v>21</v>
       </c>
       <c r="E76" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F76" s="9">
-        <v>10813</v>
+        <v>6472</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>9</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>8</v>
@@ -2781,10 +2781,10 @@
         <v>21</v>
       </c>
       <c r="E77" s="9">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F77" s="9">
-        <v>4280</v>
+        <v>10813</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>9</v>
@@ -2795,62 +2795,62 @@
     </row>
     <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="6">
-        <v>21</v>
-      </c>
-      <c r="E78" s="6">
-        <v>200</v>
-      </c>
-      <c r="F78" s="6">
-        <v>24876</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="D78" s="9">
+        <v>21</v>
+      </c>
+      <c r="E78" s="9">
+        <v>198</v>
+      </c>
+      <c r="F78" s="9">
+        <v>4280</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D79" s="6">
         <v>21</v>
       </c>
       <c r="E79" s="6">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F79" s="6">
-        <v>38824</v>
+        <v>24876</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>25</v>
@@ -2859,76 +2859,76 @@
         <v>21</v>
       </c>
       <c r="E80" s="6">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F80" s="6">
-        <v>6317</v>
+        <v>38824</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D81" s="6">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E81" s="6">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="F81" s="6">
-        <v>5918</v>
+        <v>6317</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="6">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E82" s="6">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="F82" s="6">
-        <v>2395</v>
+        <v>5918</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>26</v>
@@ -2937,99 +2937,99 @@
         <v>21</v>
       </c>
       <c r="E83" s="6">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F83" s="6">
-        <v>15445</v>
+        <v>2395</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="6">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E84" s="6">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="F84" s="6">
-        <v>3693</v>
+        <v>15445</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="8">
-        <v>16</v>
-      </c>
-      <c r="E85" s="8">
-        <v>47</v>
-      </c>
-      <c r="F85" s="8">
-        <v>3989</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+      <c r="D85" s="6">
+        <v>8</v>
+      </c>
+      <c r="E85" s="6">
+        <v>83</v>
+      </c>
+      <c r="F85" s="6">
+        <v>3693</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>99</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D86" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E86" s="8">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="F86" s="8">
-        <v>10831</v>
+        <v>3989</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>78</v>
@@ -3041,10 +3041,10 @@
         <v>21</v>
       </c>
       <c r="E87" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" s="8">
-        <v>3672</v>
+        <v>10831</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>9</v>
@@ -3053,29 +3053,55 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
-        <v>101</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>20</v>
+    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>100</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="11">
-        <v>21</v>
-      </c>
-      <c r="E88" s="11">
+      <c r="D88" s="8">
+        <v>21</v>
+      </c>
+      <c r="E88" s="8">
+        <v>165</v>
+      </c>
+      <c r="F88" s="8">
+        <v>3672</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>101</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="11">
+        <v>21</v>
+      </c>
+      <c r="E89" s="11">
         <v>231</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>31074</v>
       </c>
-      <c r="G88" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="8" t="s">
+      <c r="G89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3083,12 +3109,12 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="10" max="8" man="1"/>
-    <brk id="23" max="7" man="1"/>
-    <brk id="36" max="7" man="1"/>
-    <brk id="50" max="7" man="1"/>
-    <brk id="63" max="7" man="1"/>
-    <brk id="76" max="7" man="1"/>
+    <brk id="11" max="8" man="1"/>
+    <brk id="24" max="7" man="1"/>
+    <brk id="37" max="7" man="1"/>
+    <brk id="51" max="7" man="1"/>
+    <brk id="64" max="7" man="1"/>
+    <brk id="77" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
